--- a/biology/Botanique/Le_beaujolais_nouveau_est_arrivé_(roman)/Le_beaujolais_nouveau_est_arrivé_(roman).xlsx
+++ b/biology/Botanique/Le_beaujolais_nouveau_est_arrivé_(roman)/Le_beaujolais_nouveau_est_arrivé_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_beaujolais_nouveau_est_arriv%C3%A9_(roman)</t>
+          <t>Le_beaujolais_nouveau_est_arrivé_(roman)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le beaujolais nouveau est arrivé est un roman de René Fallet paru en 1975. Il a inspiré le film du même nom.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_beaujolais_nouveau_est_arriv%C3%A9_(roman)</t>
+          <t>Le_beaujolais_nouveau_est_arrivé_(roman)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Adrien Camadule,
 Poulouc,
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_beaujolais_nouveau_est_arriv%C3%A9_(roman)</t>
+          <t>Le_beaujolais_nouveau_est_arrivé_(roman)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Autres personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mme Conception Turlute, une concierge,
 Agaric Amadouvier, un paysan
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_beaujolais_nouveau_est_arriv%C3%A9_(roman)</t>
+          <t>Le_beaujolais_nouveau_est_arrivé_(roman)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Le lieu de rencontre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le « Café du pauvre » est un café d'un vieux quartier de banlieue.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_beaujolais_nouveau_est_arriv%C3%A9_(roman)</t>
+          <t>Le_beaujolais_nouveau_est_arrivé_(roman)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">(ISBN 2207222039)
 (ISBN 2070370925)
